--- a/doc/servicenow/import_incidents.xlsx
+++ b/doc/servicenow/import_incidents.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10509"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nhirt/DOCUMENTS_SYNC/4_PROJECTS/1_CLOUDPAKS/2_INSTALL/2_AIOPS/aiops-3.1/tools/4_integrations/ServiceNow/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nhirt/MY_DOCUMENTS/04_PROJECTS/01_IBM/01_AIOPS/01_CODE/cp4waiops-deployer_41/doc/servicenow/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A347FF82-6280-6C40-8C82-13DDDF20C84B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{093AACF4-A1C7-C646-9D80-0679153EE8CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="67500" windowHeight="27260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1080" yWindow="500" windowWidth="67500" windowHeight="27260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Page 1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="86">
   <si>
     <t>Number</t>
   </si>
@@ -115,15 +115,6 @@
     <t>MySQL K8s Pod Created</t>
   </si>
   <si>
-    <t>Catalogue - Alert Description: resource.name=catalogue (Error: unable to contact http://ratings:9080/ratings got status of 503)</t>
-  </si>
-  <si>
-    <t>Ratings - Alert Description: resource.name=ratings  (Error: unable to contact MYSQL failed with status code 500)</t>
-  </si>
-  <si>
-    <t>Predictive Insights indicates an anomaly with Ratings - Transactions anomaly</t>
-  </si>
-  <si>
     <t>MySQL - available replicas is less than desired replicas - Check conditions and error events</t>
   </si>
   <si>
@@ -217,27 +208,12 @@
     <t>Robotshop Homepage - Functional verification failed</t>
   </si>
   <si>
-    <t>Ratings - Transactions anomaly</t>
-  </si>
-  <si>
     <t>CHG0030991</t>
   </si>
   <si>
     <t>Closed</t>
   </si>
   <si>
-    <t>MySQL Deployment was out of Memory. 
-Resolved by increasing memory and restarting mysql pod: 
-oc delete pod -n robot-shop $(oc get po -n robot-shop|grep mysql|awk '{print$1}')
-An automated Runbook is available to mitigate the problem. 
-ToDo:
-- Trigger Runbook automatically
-- Review GIT Commit: https://github.com/pirsoscom/robot-shop/commit/c7854d15e117d2ed4a0bd4906b2379a5e9da2439
-Resolved by increasing memory and restarting mysql pod: 
-oc delete pod -n robot-shop $(oc get po -n robot-shop|grep mysql|awk '{print$1}')
-Review GIT Commit: https://github.com/pirsoscom/robot-shop/commit/c7854d15e117d2ed4a0bd4906b2379a5e9da2439</t>
-  </si>
-  <si>
     <t>Impact</t>
   </si>
   <si>
@@ -272,6 +248,64 @@
   </si>
   <si>
     <t>2 - Medium</t>
+  </si>
+  <si>
+    <t>vSphere Switch Outage: dcwest1-switch023</t>
+  </si>
+  <si>
+    <t>Blade DCWest1-Rack045-DELL3762 is overheating and shutting down.</t>
+  </si>
+  <si>
+    <t>Demo User</t>
+  </si>
+  <si>
+    <t>SockShop</t>
+  </si>
+  <si>
+    <t>❗ Cause: Switch DCWest1-Switch023 had an short outage.
+- ❗ vSphere Switch dcwest1-switch023 - Port1 unavailable
+- Port1 for MySQL Database unavailable.
+- Ratings Pod is unable to restart reliably after MySQL outage. 
+- MySQL Pod is in CrashLoopBackoff state and has to be restarted. 
+- Ratings Service is unable to pick up the restart and has to be restarted as well. 
+✅ Resolved by rebooting the port.
+🚀 Runbook:
+oc delete pod -n robot-shop $(oc get po -n robot-shop|grep mysql|awk '{print$1}'
+oc delete pod -n robot-shop $(oc get po -n robot-shop|grep ratings|awk '{print$1}'</t>
+  </si>
+  <si>
+    <t>Server failure after Fan outage</t>
+  </si>
+  <si>
+    <t>❗ Cause: Rack Fan had an outage.
+- Blade is overheating and shutting down.
+- vSphere Host becomes unavailable.
+- K8s node becomes unavailable.
+- Ratings Pod is unable to restart reliably after K8s Node outage. 
+- MySQL Pod is in CrashLoopBackoff state and has to be restarted. 
+- Ratings Service is unable to pick up the restart and has to be restarted as well. 
+✅ Resolved by replacing the rack fan.
+🚀 Runbook:
+oc delete pod -n robot-shop $(oc get po -n robot-shop|grep mysql|awk '{print$1}'
+oc delete pod -n robot-shop $(oc get po -n robot-shop|grep ratings|awk '{print$1}'</t>
+  </si>
+  <si>
+    <t>Ratings outage after GIT Commit</t>
+  </si>
+  <si>
+    <t>Ratings are not displayed anymore after a GIT Commit by DEV.
+Predictive Insights indicates an anomaly with MySQL memory peak usage. 
+Could be memory leak or a code change in the GIT Commit?</t>
+  </si>
+  <si>
+    <t>❗ Cause: GIT Commit set the MySQL Deployment Limits too low
+      - MySQL Pod is restarting/killed with OoutOfMemory status. 
+      - Ratings Pod is unable to access database. 
+      - After correction, ratings Pod is unable to pick up the restart and has to be restarted as well. 
+✅ Resolved by adapting mysql deployment resource limits and restarting ratings pods.
+🚀 Runbook:
+      Increase resource limits for mysql Deployment - check with DEV to correct GIT Commit
+      oc delete pod -n robot-shop $(oc get po -n robot-shop|grep ratings|awk '{print$1}'</t>
   </si>
 </sst>
 </file>
@@ -663,8 +697,8 @@
   <dimension ref="A1:V23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S11" sqref="S11:T20"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="57" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -740,30 +774,30 @@
         <v>15</v>
       </c>
       <c r="R1" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="S1" s="6" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="T1" s="6" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="U1" s="6" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="V1" s="6" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1">
         <v>44313.866238368057</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>25</v>
@@ -796,7 +830,7 @@
         <v>21</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="O2" s="2">
         <v>16180637</v>
@@ -808,30 +842,30 @@
         <v>22</v>
       </c>
       <c r="R2" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="S2" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="S2" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="T2" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="U2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="V2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:22" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B3" s="1">
         <v>44314.866238368057</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>25</v>
@@ -864,7 +898,7 @@
         <v>21</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="O3" s="2">
         <v>16180638</v>
@@ -876,30 +910,30 @@
         <v>22</v>
       </c>
       <c r="R3" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="S3" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="S3" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="T3" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="U3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="V3" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:22" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="B4" s="1">
         <v>44325.866238368057</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>25</v>
@@ -911,7 +945,7 @@
         <v>17</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H4" s="3" t="s">
         <v>23</v>
@@ -932,7 +966,7 @@
         <v>21</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="O4" s="2">
         <v>16180649</v>
@@ -944,30 +978,30 @@
         <v>22</v>
       </c>
       <c r="R4" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="S4" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="S4" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="T4" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="U4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="V4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:22" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B5" s="1">
         <v>44327.866238368057</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>25</v>
@@ -979,7 +1013,7 @@
         <v>17</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H5" s="3" t="s">
         <v>23</v>
@@ -1000,7 +1034,7 @@
         <v>21</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="O5" s="2">
         <v>16180651</v>
@@ -1012,24 +1046,24 @@
         <v>22</v>
       </c>
       <c r="R5" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="S5" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="S5" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="T5" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="U5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="V5" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:22" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B6" s="1">
         <v>44331.866238368057</v>
@@ -1047,7 +1081,7 @@
         <v>17</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H6" s="3" t="s">
         <v>23</v>
@@ -1068,7 +1102,7 @@
         <v>21</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="O6" s="2">
         <v>16180655</v>
@@ -1080,30 +1114,30 @@
         <v>22</v>
       </c>
       <c r="R6" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="S6" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="S6" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="T6" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="U6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="V6" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:22" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B7" s="1">
         <v>44332.866238368057</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>28</v>
@@ -1115,7 +1149,7 @@
         <v>17</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H7" s="3" t="s">
         <v>23</v>
@@ -1136,7 +1170,7 @@
         <v>21</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="O7" s="2">
         <v>16180656</v>
@@ -1148,24 +1182,24 @@
         <v>22</v>
       </c>
       <c r="R7" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="S7" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="U7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="V7" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:22" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B8" s="1">
         <v>44333.866238368057</v>
@@ -1183,7 +1217,7 @@
         <v>17</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H8" s="3" t="s">
         <v>23</v>
@@ -1204,7 +1238,7 @@
         <v>21</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="O8" s="2">
         <v>16180657</v>
@@ -1216,30 +1250,30 @@
         <v>22</v>
       </c>
       <c r="R8" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="S8" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="U8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="V8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:22" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B9" s="1">
         <v>44334.866238368057</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>30</v>
@@ -1251,7 +1285,7 @@
         <v>17</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H9" s="3" t="s">
         <v>23</v>
@@ -1272,7 +1306,7 @@
         <v>21</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="O9" s="2">
         <v>16180658</v>
@@ -1284,33 +1318,33 @@
         <v>22</v>
       </c>
       <c r="R9" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="S9" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="U9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="V9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:22" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B10" s="1">
         <v>44335.866238368057</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>16</v>
@@ -1319,7 +1353,7 @@
         <v>17</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H10" s="3" t="s">
         <v>23</v>
@@ -1340,7 +1374,7 @@
         <v>21</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="O10" s="2">
         <v>16180659</v>
@@ -1352,33 +1386,33 @@
         <v>22</v>
       </c>
       <c r="R10" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="S10" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="S10" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="T10" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="U10" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="V10" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="11" spans="1:22" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B11" s="1">
         <v>44336.866238368057</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>16</v>
@@ -1387,7 +1421,7 @@
         <v>17</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>23</v>
@@ -1408,7 +1442,7 @@
         <v>21</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="O11" s="2">
         <v>16180660</v>
@@ -1420,33 +1454,33 @@
         <v>22</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="S11" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="T11" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="U11" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="V11" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:22" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B12" s="1">
         <v>44337.866238368057</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>31</v>
+        <v>77</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>16</v>
@@ -1455,7 +1489,7 @@
         <v>17</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>23</v>
@@ -1464,7 +1498,7 @@
         <v>18</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="K12" s="1">
         <v>44336.183784664354</v>
@@ -1476,7 +1510,7 @@
         <v>21</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="O12" s="2">
         <v>16180661</v>
@@ -1488,33 +1522,33 @@
         <v>22</v>
       </c>
       <c r="R12" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="S12" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="T12" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="U12" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="V12" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:22" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B13" s="1">
         <v>44338.866238368057</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>32</v>
+        <v>77</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>16</v>
@@ -1523,7 +1557,7 @@
         <v>17</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>23</v>
@@ -1544,7 +1578,7 @@
         <v>21</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="O13" s="2">
         <v>16180662</v>
@@ -1556,33 +1590,33 @@
         <v>22</v>
       </c>
       <c r="R13" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="S13" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="T13" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="U13" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="V13" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:22" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B14" s="1">
-        <v>44339.866238368057</v>
+        <v>44337.866238368057</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>33</v>
+        <v>77</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>16</v>
@@ -1591,7 +1625,7 @@
         <v>17</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H14" s="3" t="s">
         <v>23</v>
@@ -1600,10 +1634,10 @@
         <v>18</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>19</v>
+        <v>78</v>
       </c>
       <c r="K14" s="1">
-        <v>44338.183784664354</v>
+        <v>44336.183784664354</v>
       </c>
       <c r="L14" s="3" t="s">
         <v>20</v>
@@ -1612,45 +1646,45 @@
         <v>21</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="O14" s="2">
-        <v>16180663</v>
+        <v>16180661</v>
       </c>
       <c r="P14" s="1">
-        <v>44342.183784664354</v>
+        <v>44340.183784664354</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>22</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="S14" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="T14" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="U14" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="V14" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:22" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B15" s="1">
         <v>44340.866238368057</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>16</v>
@@ -1659,7 +1693,7 @@
         <v>17</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>23</v>
@@ -1680,7 +1714,7 @@
         <v>21</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="O15" s="2">
         <v>16180664</v>
@@ -1692,33 +1726,33 @@
         <v>22</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="S15" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="T15" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="U15" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="V15" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:22" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B16" s="1">
         <v>44341.866238368057</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>16</v>
@@ -1727,7 +1761,7 @@
         <v>17</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H16" s="3" t="s">
         <v>23</v>
@@ -1748,7 +1782,7 @@
         <v>21</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="O16" s="2">
         <v>16180665</v>
@@ -1760,24 +1794,24 @@
         <v>22</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="S16" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="T16" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="U16" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="V16" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="17" spans="1:22" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B17" s="1">
         <v>44344.866238368057</v>
@@ -1795,7 +1829,7 @@
         <v>17</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>23</v>
@@ -1816,7 +1850,7 @@
         <v>21</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="O17" s="2">
         <v>16180668</v>
@@ -1828,30 +1862,30 @@
         <v>22</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="S17" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="T17" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="U17" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="V17" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" spans="1:22" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B18" s="1">
         <v>44313.866238368057</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>25</v>
@@ -1863,7 +1897,7 @@
         <v>17</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>23</v>
@@ -1884,7 +1918,7 @@
         <v>21</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="O18" s="2">
         <v>16180637</v>
@@ -1896,30 +1930,30 @@
         <v>22</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="S18" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="T18" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="U18" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="V18" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:22" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B19" s="1">
         <v>44314.866238368057</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>25</v>
@@ -1931,7 +1965,7 @@
         <v>17</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H19" s="3" t="s">
         <v>23</v>
@@ -1952,7 +1986,7 @@
         <v>21</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="O19" s="2">
         <v>16180638</v>
@@ -1964,30 +1998,30 @@
         <v>22</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="S19" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="T19" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="U19" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="V19" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="20" spans="1:22" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B20" s="1">
         <v>44325.866238368057</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>25</v>
@@ -1999,7 +2033,7 @@
         <v>17</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>23</v>
@@ -2020,7 +2054,7 @@
         <v>21</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="O20" s="2">
         <v>16180649</v>
@@ -2032,33 +2066,33 @@
         <v>22</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="S20" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="T20" s="3" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="U20" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="V20" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="21" spans="1:22" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B21" s="1">
         <v>44335.866238368057</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>16</v>
@@ -2067,7 +2101,7 @@
         <v>17</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>23</v>
@@ -2088,7 +2122,7 @@
         <v>21</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
       <c r="O21" s="2">
         <v>16180659</v>
@@ -2100,19 +2134,19 @@
         <v>22</v>
       </c>
       <c r="R21" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="S21" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="S21" s="3" t="s">
-        <v>71</v>
-      </c>
       <c r="T21" s="3" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="U21" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="V21" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:22" ht="57" customHeight="1" x14ac:dyDescent="0.2">
